--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -31,13 +31,28 @@
     <t xml:space="preserve">Result</t>
   </si>
   <si>
-    <t xml:space="preserve">ManUtd</t>
+    <t xml:space="preserve">ManUtd@qwe.com</t>
   </si>
   <si>
     <t xml:space="preserve">Manutd123</t>
   </si>
   <si>
     <t xml:space="preserve">Invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emptyEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.mjolnir@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123Qwe321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid</t>
   </si>
 </sst>
 </file>
@@ -47,11 +62,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="17">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +83,65 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -74,76 +149,36 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -155,44 +190,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -244,26 +279,64 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,23 +348,23 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Accent 1 17" xfId="20"/>
+    <cellStyle name="Accent 16" xfId="21"/>
+    <cellStyle name="Accent 2 18" xfId="22"/>
+    <cellStyle name="Accent 3 19" xfId="23"/>
+    <cellStyle name="Bad 13" xfId="24"/>
+    <cellStyle name="Error 15" xfId="25"/>
+    <cellStyle name="Footnote 8" xfId="26"/>
+    <cellStyle name="Good 11" xfId="27"/>
+    <cellStyle name="Heading 1 4" xfId="28"/>
+    <cellStyle name="Heading 2 5" xfId="29"/>
+    <cellStyle name="Heading 3" xfId="30"/>
+    <cellStyle name="Hyperlink 9" xfId="31"/>
+    <cellStyle name="Neutral 12" xfId="32"/>
+    <cellStyle name="Note 7" xfId="33"/>
+    <cellStyle name="Status 10" xfId="34"/>
+    <cellStyle name="Text 6" xfId="35"/>
+    <cellStyle name="Warning 14" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -299,7 +372,7 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
@@ -326,7 +399,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
@@ -361,10 +434,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -384,7 +457,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -394,7 +467,32 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="ManUtd@qwe.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -40,10 +40,7 @@
     <t xml:space="preserve">Invalid</t>
   </si>
   <si>
-    <t xml:space="preserve">1q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emptyEmail</t>
+    <t xml:space="preserve">RealMadrid</t>
   </si>
   <si>
     <t xml:space="preserve">12.mjolnir@gmail.com</t>
@@ -437,7 +434,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,22 +468,19 @@
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
